--- a/BetaCinema.ServerUI/Template/ImportTemplates/UserImport.xlsx
+++ b/BetaCinema.ServerUI/Template/ImportTemplates/UserImport.xlsx
@@ -1,45 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\blazor\BetaCinema\BetaCinema.ServerUI\Template\ImportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148C7DEC-5D1D-4FC4-9406-6AFA8B6180B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C594CE-92FE-40EA-8995-C7473845B736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>FullName</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>DANH SÁCH NGƯỜI DÙNG</t>
+  </si>
+  <si>
+    <t>Tên người dùng</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Role</t>
+    <t>Vai trò</t>
+  </si>
+  <si>
+    <t>Họ tên</t>
+  </si>
+  <si>
+    <t>Mật khẩu</t>
   </si>
   <si>
     <t>test1</t>
@@ -51,61 +52,79 @@
     <t>Customer</t>
   </si>
   <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test2@mail.com</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test3@mail.com</t>
+  </si>
+  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
     <t>test4</t>
   </si>
   <si>
+    <t>test4@mail.com</t>
+  </si>
+  <si>
     <t>test5</t>
   </si>
   <si>
-    <t>test2@mail.com</t>
-  </si>
-  <si>
-    <t>test3@mail.com</t>
-  </si>
-  <si>
     <t>test5@mail.com</t>
-  </si>
-  <si>
-    <t>test4@mail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,13 +132,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,7 +214,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -166,7 +226,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -213,6 +273,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -248,6 +325,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,122 +493,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B78FB58-FC69-45B8-BE8C-0DCDA3C69853}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" style="6" customWidth="1"/>
+    <col min="2" max="4" width="36.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8">
+        <v>111111</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
+        <v>111112</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8">
+        <v>111113</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>111114</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>111111</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8">
+        <v>111115</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>111112</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>111113</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>111114</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>111115</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>